--- a/TestData/K_68Bus_SG_IBR_Load.xlsx
+++ b/TestData/K_68Bus_SG_IBR_Load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC9DC94-F783-4CC3-9FE1-1D9250368068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F609A0C-6634-471D-8FC2-28F86E66F4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3378,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3421,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3442,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3463,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3484,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3547,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3568,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3631,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3652,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3673,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
